--- a/报价单模版 2024 最终版.xlsx
+++ b/报价单模版 2024 最终版.xlsx
@@ -1433,14 +1433,7 @@
     <numFmt numFmtId="178" formatCode="\¥#,##0.00_);[Red]\(\¥#,##0.00\)"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="36">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,13 +1496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -1533,13 +1519,6 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1693,7 +1672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1798,12 +1777,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1889,12 +1862,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,19 +2158,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2212,133 +2191,121 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2346,108 +2313,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="50" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="50" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2457,10 +2424,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2472,7 +2439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2481,22 +2448,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2505,7 +2472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2517,16 +2484,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2541,82 +2508,82 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="7" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2963,7 +2930,7 @@
   <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -7452,7 +7419,7 @@
       <c r="B66" s="69"/>
       <c r="C66" s="70">
         <f ca="1">TODAY()+1</f>
-        <v>45750</v>
+        <v>45810</v>
       </c>
       <c r="D66" s="70"/>
       <c r="E66" s="69" t="s">
